--- a/public/apz_dilmurod_23_08_25.xlsx
+++ b/public/apz_dilmurod_23_08_25.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inves\OneDrive\Ishchi stol\apz-yunusov\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4607282-DD34-4A90-8F81-3627ECED7430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4F3E80-813A-4FF0-A31A-D84FBAAF95C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$I$1:$I$503</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2959,10 +2962,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AY503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="74" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="74" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J124" sqref="J124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2975,7 +2979,7 @@
     <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="54.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" customWidth="1"/>
     <col min="10" max="10" width="16.08984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.7265625" bestFit="1" customWidth="1"/>
@@ -3088,7 +3092,7 @@
         <v>1563892331255.5</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:51" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3240,7 +3244,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:51" hidden="1" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
         <v>30</v>
       </c>
@@ -3338,7 +3342,7 @@
         <v>412831227488.39166</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:51" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -3591,7 +3595,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:51" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -3719,7 +3723,7 @@
         <v>8272220480</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:51" hidden="1" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>31</v>
       </c>
@@ -3847,7 +3851,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:51" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -3984,7 +3988,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:51" hidden="1" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>32</v>
       </c>
@@ -4109,7 +4113,7 @@
         <v>287591975</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:51" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -4240,7 +4244,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:51" hidden="1" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>32</v>
       </c>
@@ -4365,7 +4369,7 @@
         <v>2514941750</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:51" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -4496,7 +4500,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:51" hidden="1" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>32</v>
       </c>
@@ -4621,7 +4625,7 @@
         <v>9996000</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:51" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -4874,7 +4878,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:51" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -5005,7 +5009,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>31</v>
       </c>
@@ -5133,7 +5137,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -5264,7 +5268,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>31</v>
       </c>
@@ -5392,7 +5396,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -5520,7 +5524,7 @@
         <v>1941558290.625</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>31</v>
       </c>
@@ -5648,7 +5652,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -5779,7 +5783,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
         <v>32</v>
       </c>
@@ -5907,7 +5911,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -6041,7 +6045,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
         <v>31</v>
       </c>
@@ -6169,7 +6173,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -6297,7 +6301,7 @@
         <v>389140582.57142854</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>32</v>
       </c>
@@ -6550,7 +6554,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
         <v>32</v>
       </c>
@@ -6803,7 +6807,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
         <v>32</v>
       </c>
@@ -6931,7 +6935,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -7059,7 +7063,7 @@
         <v>1105475300</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C33" t="s">
         <v>32</v>
       </c>
@@ -7841,7 +7845,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -8100,7 +8104,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -8228,7 +8232,7 @@
         <v>1301903920</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
         <v>32</v>
       </c>
@@ -8353,7 +8357,7 @@
         <v>324356600</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -8481,7 +8485,7 @@
         <v>2235418400</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -8609,7 +8613,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -8740,7 +8744,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
         <v>31</v>
       </c>
@@ -8868,7 +8872,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>31</v>
       </c>
@@ -8999,7 +9003,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
         <v>32</v>
       </c>
@@ -9258,7 +9262,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C51" t="s">
         <v>32</v>
       </c>
@@ -9618,7 +9622,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>31</v>
       </c>
@@ -9968,7 +9972,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C57" t="s">
         <v>31</v>
       </c>
@@ -10096,7 +10100,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>31</v>
       </c>
@@ -10332,7 +10336,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -10702,7 +10706,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C63" t="s">
         <v>32</v>
       </c>
@@ -10830,7 +10834,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>31</v>
       </c>
@@ -10958,7 +10962,7 @@
         <v>-39934643.666666672</v>
       </c>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -11086,7 +11090,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>31</v>
       </c>
@@ -11217,7 +11221,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C67" t="s">
         <v>32</v>
       </c>
@@ -11456,7 +11460,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C69" t="s">
         <v>31</v>
       </c>
@@ -11584,7 +11588,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>31</v>
       </c>
@@ -11715,7 +11719,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C71" t="s">
         <v>31</v>
       </c>
@@ -11843,7 +11847,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>31</v>
       </c>
@@ -11974,7 +11978,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="73" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C73" t="s">
         <v>31</v>
       </c>
@@ -12102,7 +12106,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="74" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>31</v>
       </c>
@@ -12233,7 +12237,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="75" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C75" t="s">
         <v>32</v>
       </c>
@@ -12361,7 +12365,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>31</v>
       </c>
@@ -12495,7 +12499,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="77" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C77" t="s">
         <v>32</v>
       </c>
@@ -12620,7 +12624,7 @@
         <v>2210130560</v>
       </c>
     </row>
-    <row r="78" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>31</v>
       </c>
@@ -12862,7 +12866,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>31</v>
       </c>
@@ -12993,7 +12997,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="81" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C81" t="s">
         <v>31</v>
       </c>
@@ -13124,7 +13128,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>31</v>
       </c>
@@ -13386,7 +13390,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>31</v>
       </c>
@@ -13628,7 +13632,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -13759,7 +13763,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="87" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C87" t="s">
         <v>32</v>
       </c>
@@ -13887,7 +13891,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="88" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>31</v>
       </c>
@@ -14018,7 +14022,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="89" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C89" t="s">
         <v>32</v>
       </c>
@@ -14146,7 +14150,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="90" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>31</v>
       </c>
@@ -14274,7 +14278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C91" t="s">
         <v>32</v>
       </c>
@@ -14399,7 +14403,7 @@
         <v>408397800</v>
       </c>
     </row>
-    <row r="92" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>31</v>
       </c>
@@ -14658,7 +14662,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>31</v>
       </c>
@@ -14792,7 +14796,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="95" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C95" t="s">
         <v>32</v>
       </c>
@@ -14917,7 +14921,7 @@
         <v>828147.20000004768</v>
       </c>
     </row>
-    <row r="96" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>31</v>
       </c>
@@ -15173,7 +15177,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="98" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>31</v>
       </c>
@@ -15432,7 +15436,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="100" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>31</v>
       </c>
@@ -15563,7 +15567,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="C101" t="s">
         <v>32</v>
       </c>
@@ -15691,7 +15695,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="102" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>31</v>
       </c>
@@ -15822,7 +15826,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="103" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="C103" t="s">
         <v>32</v>
       </c>
@@ -15947,7 +15951,7 @@
         <v>64302037</v>
       </c>
     </row>
-    <row r="104" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>31</v>
       </c>
@@ -16075,7 +16079,7 @@
         <v>5926761000</v>
       </c>
     </row>
-    <row r="105" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="C105" t="s">
         <v>32</v>
       </c>
@@ -16200,7 +16204,7 @@
         <v>434414736</v>
       </c>
     </row>
-    <row r="106" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>31</v>
       </c>
@@ -16337,7 +16341,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="107" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="C107" t="s">
         <v>32</v>
       </c>
@@ -16462,7 +16466,7 @@
         <v>2351187983.52</v>
       </c>
     </row>
-    <row r="108" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>31</v>
       </c>
@@ -16590,7 +16594,7 @@
         <v>45220000</v>
       </c>
     </row>
-    <row r="109" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="C109" t="s">
         <v>32</v>
       </c>
@@ -16715,7 +16719,7 @@
         <v>61381800</v>
       </c>
     </row>
-    <row r="110" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>31</v>
       </c>
@@ -16846,7 +16850,7 @@
         <v>8324832</v>
       </c>
     </row>
-    <row r="111" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="C111" t="s">
         <v>32</v>
       </c>
@@ -16974,7 +16978,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="112" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>31</v>
       </c>
@@ -17105,7 +17109,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="113" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="C113" t="s">
         <v>32</v>
       </c>
@@ -17239,7 +17243,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="114" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>31</v>
       </c>
@@ -17367,7 +17371,7 @@
         <v>140446000</v>
       </c>
     </row>
-    <row r="115" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="C115" t="s">
         <v>32</v>
       </c>
@@ -17495,7 +17499,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="116" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>31</v>
       </c>
@@ -17623,7 +17627,7 @@
         <v>-3590400</v>
       </c>
     </row>
-    <row r="117" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="C117" t="s">
         <v>32</v>
       </c>
@@ -17748,7 +17752,7 @@
         <v>2015585280</v>
       </c>
     </row>
-    <row r="118" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>31</v>
       </c>
@@ -17876,7 +17880,7 @@
         <v>3570000000</v>
       </c>
     </row>
-    <row r="119" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="C119" t="s">
         <v>32</v>
       </c>
@@ -18001,7 +18005,7 @@
         <v>2994006800</v>
       </c>
     </row>
-    <row r="120" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>31</v>
       </c>
@@ -18132,7 +18136,7 @@
         <v>876792000</v>
       </c>
     </row>
-    <row r="121" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="C121" t="s">
         <v>31</v>
       </c>
@@ -18260,7 +18264,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="122" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>31</v>
       </c>
@@ -18778,7 +18782,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="126" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>31</v>
       </c>
@@ -18909,7 +18913,7 @@
         <v>334760000</v>
       </c>
     </row>
-    <row r="127" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="C127" t="s">
         <v>32</v>
       </c>
@@ -19148,7 +19152,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="129" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="C129" t="s">
         <v>32</v>
       </c>
@@ -19273,7 +19277,7 @@
         <v>2998555333.3333335</v>
       </c>
     </row>
-    <row r="130" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>31</v>
       </c>
@@ -19404,7 +19408,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="131" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="C131" t="s">
         <v>31</v>
       </c>
@@ -19535,7 +19539,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="132" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>31</v>
       </c>
@@ -19666,7 +19670,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="133" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="C133" t="s">
         <v>32</v>
       </c>
@@ -19794,7 +19798,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="134" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>31</v>
       </c>
@@ -19922,7 +19926,7 @@
         <v>3382156800</v>
       </c>
     </row>
-    <row r="135" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="C135" t="s">
         <v>32</v>
       </c>
@@ -20047,7 +20051,7 @@
         <v>355769200</v>
       </c>
     </row>
-    <row r="136" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>31</v>
       </c>
@@ -20178,7 +20182,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="137" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="C137" t="s">
         <v>32</v>
       </c>
@@ -20437,7 +20441,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="139" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="B139">
         <v>1</v>
       </c>
@@ -20565,7 +20569,7 @@
         <v>111514529280</v>
       </c>
     </row>
-    <row r="140" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>31</v>
       </c>
@@ -20693,7 +20697,7 @@
         <v>1922751000</v>
       </c>
     </row>
-    <row r="141" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="C141" t="s">
         <v>32</v>
       </c>
@@ -20821,7 +20825,7 @@
         <v>82101500</v>
       </c>
     </row>
-    <row r="142" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:50" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>31</v>
       </c>
@@ -21319,7 +21323,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="146" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>31</v>
       </c>
@@ -21450,7 +21454,7 @@
         <v>82252800</v>
       </c>
     </row>
-    <row r="147" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C147" t="s">
         <v>32</v>
       </c>
@@ -21578,7 +21582,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="148" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>31</v>
       </c>
@@ -21712,7 +21716,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="149" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C149" t="s">
         <v>31</v>
       </c>
@@ -21840,7 +21844,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="150" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>31</v>
       </c>
@@ -22096,7 +22100,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="152" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>31</v>
       </c>
@@ -22227,7 +22231,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="153" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C153" t="s">
         <v>32</v>
       </c>
@@ -22352,7 +22356,7 @@
         <v>1764192000</v>
       </c>
     </row>
-    <row r="154" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>31</v>
       </c>
@@ -22480,7 +22484,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="155" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C155" t="s">
         <v>31</v>
       </c>
@@ -22608,7 +22612,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="156" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>31</v>
       </c>
@@ -22736,7 +22740,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="157" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C157" t="s">
         <v>31</v>
       </c>
@@ -23103,7 +23107,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="160" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>31</v>
       </c>
@@ -23234,7 +23238,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="161" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C161" t="s">
         <v>32</v>
       </c>
@@ -23359,7 +23363,7 @@
         <v>220320000</v>
       </c>
     </row>
-    <row r="162" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>31</v>
       </c>
@@ -23490,7 +23494,7 @@
         <v>317492000</v>
       </c>
     </row>
-    <row r="163" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C163" t="s">
         <v>32</v>
       </c>
@@ -23615,7 +23619,7 @@
         <v>1980160000</v>
       </c>
     </row>
-    <row r="164" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>31</v>
       </c>
@@ -23871,7 +23875,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="166" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>31</v>
       </c>
@@ -24002,7 +24006,7 @@
         <v>2393184900</v>
       </c>
     </row>
-    <row r="167" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C167" t="s">
         <v>31</v>
       </c>
@@ -24127,7 +24131,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="168" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>31</v>
       </c>
@@ -24255,7 +24259,7 @@
         <v>2142000000</v>
       </c>
     </row>
-    <row r="169" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C169" t="s">
         <v>32</v>
       </c>
@@ -24642,7 +24646,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="172" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>31</v>
       </c>
@@ -24770,7 +24774,7 @@
         <v>183855000</v>
       </c>
     </row>
-    <row r="173" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C173" t="s">
         <v>31</v>
       </c>
@@ -25029,7 +25033,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="175" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C175" t="s">
         <v>32</v>
       </c>
@@ -25157,7 +25161,7 @@
         <v>128061000</v>
       </c>
     </row>
-    <row r="176" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>31</v>
       </c>
@@ -25288,7 +25292,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="177" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C177" t="s">
         <v>31</v>
       </c>
@@ -25416,7 +25420,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="178" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>31</v>
       </c>
@@ -25544,7 +25548,7 @@
         <v>1158189600</v>
       </c>
     </row>
-    <row r="179" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C179" t="s">
         <v>32</v>
       </c>
@@ -25803,7 +25807,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="181" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C181" t="s">
         <v>32</v>
       </c>
@@ -25928,7 +25932,7 @@
         <v>2666422800</v>
       </c>
     </row>
-    <row r="182" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>31</v>
       </c>
@@ -26059,7 +26063,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="183" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C183" t="s">
         <v>32</v>
       </c>
@@ -26318,7 +26322,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="185" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C185" t="s">
         <v>32</v>
       </c>
@@ -26443,7 +26447,7 @@
         <v>27653262.5</v>
       </c>
     </row>
-    <row r="186" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>31</v>
       </c>
@@ -26571,7 +26575,7 @@
         <v>520036800</v>
       </c>
     </row>
-    <row r="187" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C187" t="s">
         <v>32</v>
       </c>
@@ -26699,7 +26703,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="188" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>31</v>
       </c>
@@ -26958,7 +26962,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="190" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>31</v>
       </c>
@@ -27089,7 +27093,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="191" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C191" t="s">
         <v>32</v>
       </c>
@@ -27217,7 +27221,7 @@
         <v>571828320</v>
       </c>
     </row>
-    <row r="192" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>31</v>
       </c>
@@ -27348,7 +27352,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="193" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C193" t="s">
         <v>32</v>
       </c>
@@ -27735,7 +27739,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="196" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>31</v>
       </c>
@@ -27866,7 +27870,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="197" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C197" t="s">
         <v>31</v>
       </c>
@@ -28256,7 +28260,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="200" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>31</v>
       </c>
@@ -28384,7 +28388,7 @@
         <v>91800000</v>
       </c>
     </row>
-    <row r="201" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C201" t="s">
         <v>32</v>
       </c>
@@ -28509,7 +28513,7 @@
         <v>145610667</v>
       </c>
     </row>
-    <row r="202" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>31</v>
       </c>
@@ -28637,7 +28641,7 @@
         <v>3383022813.6000004</v>
       </c>
     </row>
-    <row r="203" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C203" t="s">
         <v>32</v>
       </c>
@@ -28896,7 +28900,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="205" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C205" t="s">
         <v>32</v>
       </c>
@@ -29024,7 +29028,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="206" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>31</v>
       </c>
@@ -29155,7 +29159,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="207" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C207" t="s">
         <v>32</v>
       </c>
@@ -29286,7 +29290,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="208" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>31</v>
       </c>
@@ -29545,7 +29549,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="210" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>31</v>
       </c>
@@ -29804,7 +29808,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="212" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>31</v>
       </c>
@@ -30203,7 +30207,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="215" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C215" t="s">
         <v>32</v>
       </c>
@@ -30462,7 +30466,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="217" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C217" t="s">
         <v>31</v>
       </c>
@@ -30593,7 +30597,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="218" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>31</v>
       </c>
@@ -30724,7 +30728,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="219" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C219" t="s">
         <v>32</v>
       </c>
@@ -31108,7 +31112,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="222" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>31</v>
       </c>
@@ -31239,7 +31243,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="223" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C223" t="s">
         <v>32</v>
       </c>
@@ -31498,7 +31502,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="225" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C225" t="s">
         <v>32</v>
       </c>
@@ -31757,7 +31761,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="227" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C227" t="s">
         <v>32</v>
       </c>
@@ -32147,7 +32151,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="230" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>31</v>
       </c>
@@ -32406,7 +32410,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="232" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>31</v>
       </c>
@@ -32537,7 +32541,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="233" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C233" t="s">
         <v>31</v>
       </c>
@@ -32668,7 +32672,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="234" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>31</v>
       </c>
@@ -32799,7 +32803,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="235" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C235" t="s">
         <v>32</v>
       </c>
@@ -32930,7 +32934,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="236" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>31</v>
       </c>
@@ -33064,7 +33068,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="237" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C237" t="s">
         <v>32</v>
       </c>
@@ -33192,7 +33196,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="238" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>32</v>
       </c>
@@ -33457,7 +33461,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="240" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>31</v>
       </c>
@@ -33588,7 +33592,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="241" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C241" t="s">
         <v>32</v>
       </c>
@@ -33716,7 +33720,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="242" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>31</v>
       </c>
@@ -33978,7 +33982,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="244" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>31</v>
       </c>
@@ -34109,7 +34113,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="245" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C245" t="s">
         <v>31</v>
       </c>
@@ -34240,7 +34244,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="246" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>31</v>
       </c>
@@ -34374,7 +34378,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="247" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C247" t="s">
         <v>31</v>
       </c>
@@ -34502,7 +34506,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="248" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>31</v>
       </c>
@@ -34761,7 +34765,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="250" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>31</v>
       </c>
@@ -34889,7 +34893,7 @@
         <v>10606542892.000002</v>
       </c>
     </row>
-    <row r="251" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C251" t="s">
         <v>31</v>
       </c>
@@ -35017,7 +35021,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="252" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>31</v>
       </c>
@@ -35148,7 +35152,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="253" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C253" t="s">
         <v>32</v>
       </c>
@@ -35410,7 +35414,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="255" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="B255">
         <v>1</v>
       </c>
@@ -35669,7 +35673,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="257" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C257" t="s">
         <v>32</v>
       </c>
@@ -35928,7 +35932,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="259" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C259" t="s">
         <v>32</v>
       </c>
@@ -36053,7 +36057,7 @@
         <v>815604000</v>
       </c>
     </row>
-    <row r="260" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>31</v>
       </c>
@@ -36181,7 +36185,7 @@
         <v>719892500</v>
       </c>
     </row>
-    <row r="261" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C261" t="s">
         <v>32</v>
       </c>
@@ -36306,7 +36310,7 @@
         <v>370995568.18181819</v>
       </c>
     </row>
-    <row r="262" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>31</v>
       </c>
@@ -36440,7 +36444,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="263" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C263" t="s">
         <v>32</v>
       </c>
@@ -36568,7 +36572,7 @@
         <v>84420000</v>
       </c>
     </row>
-    <row r="264" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>31</v>
       </c>
@@ -36699,7 +36703,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="265" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C265" t="s">
         <v>32</v>
       </c>
@@ -36824,7 +36828,7 @@
         <v>492750000</v>
       </c>
     </row>
-    <row r="266" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>31</v>
       </c>
@@ -37342,7 +37346,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="270" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>31</v>
       </c>
@@ -37473,7 +37477,7 @@
         <v>2281387500</v>
       </c>
     </row>
-    <row r="271" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C271" t="s">
         <v>32</v>
       </c>
@@ -37729,7 +37733,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="273" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C273" t="s">
         <v>32</v>
       </c>
@@ -37854,7 +37858,7 @@
         <v>3245237500</v>
       </c>
     </row>
-    <row r="274" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>31</v>
       </c>
@@ -38244,7 +38248,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="277" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C277" t="s">
         <v>32</v>
       </c>
@@ -38509,7 +38513,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="279" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C279" t="s">
         <v>32</v>
       </c>
@@ -38768,7 +38772,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="281" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C281" t="s">
         <v>32</v>
       </c>
@@ -38893,7 +38897,7 @@
         <v>296841375</v>
       </c>
     </row>
-    <row r="282" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>31</v>
       </c>
@@ -39280,7 +39284,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="285" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C285" t="s">
         <v>32</v>
       </c>
@@ -39670,7 +39674,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="288" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>31</v>
       </c>
@@ -39804,7 +39808,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="289" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C289" t="s">
         <v>32</v>
       </c>
@@ -40459,7 +40463,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="294" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>31</v>
       </c>
@@ -40587,7 +40591,7 @@
         <v>428911875</v>
       </c>
     </row>
-    <row r="295" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C295" t="s">
         <v>32</v>
       </c>
@@ -40712,7 +40716,7 @@
         <v>7441777500</v>
       </c>
     </row>
-    <row r="296" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>31</v>
       </c>
@@ -40843,7 +40847,7 @@
         <v>253260000</v>
       </c>
     </row>
-    <row r="297" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C297" t="s">
         <v>32</v>
       </c>
@@ -41105,7 +41109,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="299" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C299" t="s">
         <v>32</v>
       </c>
@@ -41233,7 +41237,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="300" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>31</v>
       </c>
@@ -41754,7 +41758,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="304" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>31</v>
       </c>
@@ -41888,7 +41892,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="305" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C305" t="s">
         <v>32</v>
       </c>
@@ -42019,7 +42023,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="306" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>31</v>
       </c>
@@ -42147,7 +42151,7 @@
         <v>379152000</v>
       </c>
     </row>
-    <row r="307" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C307" t="s">
         <v>32</v>
       </c>
@@ -42272,7 +42276,7 @@
         <v>847554687.5</v>
       </c>
     </row>
-    <row r="308" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>31</v>
       </c>
@@ -42403,7 +42407,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="309" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C309" t="s">
         <v>32</v>
       </c>
@@ -42787,7 +42791,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="312" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>31</v>
       </c>
@@ -42921,7 +42925,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="313" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C313" t="s">
         <v>32</v>
       </c>
@@ -43838,7 +43842,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="320" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>31</v>
       </c>
@@ -43966,7 +43970,7 @@
         <v>353727000</v>
       </c>
     </row>
-    <row r="321" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C321" t="s">
         <v>32</v>
       </c>
@@ -44350,7 +44354,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="324" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>31</v>
       </c>
@@ -44743,7 +44747,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="327" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C327" t="s">
         <v>32</v>
       </c>
@@ -44868,7 +44872,7 @@
         <v>3615000</v>
       </c>
     </row>
-    <row r="328" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>32</v>
       </c>
@@ -45124,7 +45128,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="330" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>32</v>
       </c>
@@ -45526,7 +45530,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="333" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C333" t="s">
         <v>32</v>
       </c>
@@ -45651,7 +45655,7 @@
         <v>646471125</v>
       </c>
     </row>
-    <row r="334" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>32</v>
       </c>
@@ -45782,7 +45786,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="335" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C335" t="s">
         <v>32</v>
       </c>
@@ -45910,7 +45914,7 @@
         <v>71137500</v>
       </c>
     </row>
-    <row r="336" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>32</v>
       </c>
@@ -46297,7 +46301,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="339" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C339" t="s">
         <v>32</v>
       </c>
@@ -46550,7 +46554,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="341" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C341" t="s">
         <v>32</v>
       </c>
@@ -46806,7 +46810,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="343" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C343" t="s">
         <v>32</v>
       </c>
@@ -47059,7 +47063,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="345" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C345" t="s">
         <v>32</v>
       </c>
@@ -47184,7 +47188,7 @@
         <v>1803942692.3076923</v>
       </c>
     </row>
-    <row r="346" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>31</v>
       </c>
@@ -47312,7 +47316,7 @@
         <v>755348100</v>
       </c>
     </row>
-    <row r="347" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C347" t="s">
         <v>32</v>
       </c>
@@ -47437,7 +47441,7 @@
         <v>85950000</v>
       </c>
     </row>
-    <row r="348" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>31</v>
       </c>
@@ -47568,7 +47572,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="349" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C349" t="s">
         <v>32</v>
       </c>
@@ -47693,7 +47697,7 @@
         <v>508687500</v>
       </c>
     </row>
-    <row r="350" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>31</v>
       </c>
@@ -47821,7 +47825,7 @@
         <v>5997827500</v>
       </c>
     </row>
-    <row r="351" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C351" t="s">
         <v>32</v>
       </c>
@@ -48083,7 +48087,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="353" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C353" t="s">
         <v>32</v>
       </c>
@@ -48211,7 +48215,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="354" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>31</v>
       </c>
@@ -48339,7 +48343,7 @@
         <v>217031250</v>
       </c>
     </row>
-    <row r="355" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C355" t="s">
         <v>32</v>
       </c>
@@ -48595,7 +48599,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="357" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C357" t="s">
         <v>32</v>
       </c>
@@ -48720,7 +48724,7 @@
         <v>13276872000</v>
       </c>
     </row>
-    <row r="358" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>31</v>
       </c>
@@ -48979,7 +48983,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="360" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>31</v>
       </c>
@@ -49110,7 +49114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C361" t="s">
         <v>32</v>
       </c>
@@ -49235,7 +49239,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="362" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>32</v>
       </c>
@@ -49494,7 +49498,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="364" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>31</v>
       </c>
@@ -49622,7 +49626,7 @@
         <v>499628500</v>
       </c>
     </row>
-    <row r="365" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="C365" t="s">
         <v>32</v>
       </c>
@@ -49747,7 +49751,7 @@
         <v>313590000</v>
       </c>
     </row>
-    <row r="366" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="U366">
         <v>0</v>
       </c>
@@ -49824,7 +49828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="U367">
         <v>0</v>
       </c>
@@ -49901,7 +49905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="U368">
         <v>0</v>
       </c>
@@ -49978,7 +49982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="369" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U369">
         <v>0</v>
       </c>
@@ -50055,7 +50059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="370" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U370">
         <v>0</v>
       </c>
@@ -50132,7 +50136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="371" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U371">
         <v>0</v>
       </c>
@@ -50209,7 +50213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="372" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U372">
         <v>0</v>
       </c>
@@ -50286,7 +50290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="373" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U373">
         <v>0</v>
       </c>
@@ -50363,7 +50367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="374" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U374">
         <v>0</v>
       </c>
@@ -50440,7 +50444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="375" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U375">
         <v>0</v>
       </c>
@@ -50517,7 +50521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="376" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U376">
         <v>0</v>
       </c>
@@ -50594,7 +50598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="377" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U377">
         <v>0</v>
       </c>
@@ -50671,7 +50675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="378" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U378">
         <v>0</v>
       </c>
@@ -50748,7 +50752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="379" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U379">
         <v>0</v>
       </c>
@@ -50825,7 +50829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="380" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U380">
         <v>0</v>
       </c>
@@ -50902,7 +50906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="381" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U381">
         <v>0</v>
       </c>
@@ -50979,7 +50983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="382" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U382">
         <v>0</v>
       </c>
@@ -51056,7 +51060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="383" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U383">
         <v>0</v>
       </c>
@@ -51133,7 +51137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="384" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U384">
         <v>0</v>
       </c>
@@ -51210,7 +51214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="385" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U385">
         <v>0</v>
       </c>
@@ -51287,7 +51291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="386" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U386">
         <v>0</v>
       </c>
@@ -51364,7 +51368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="387" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U387">
         <v>0</v>
       </c>
@@ -51441,7 +51445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="388" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U388">
         <v>0</v>
       </c>
@@ -51518,7 +51522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="389" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U389">
         <v>0</v>
       </c>
@@ -51595,7 +51599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="390" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U390">
         <v>0</v>
       </c>
@@ -51672,7 +51676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="391" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U391">
         <v>0</v>
       </c>
@@ -51749,7 +51753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="392" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U392">
         <v>0</v>
       </c>
@@ -51826,7 +51830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="393" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U393">
         <v>0</v>
       </c>
@@ -51903,7 +51907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="394" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U394">
         <v>0</v>
       </c>
@@ -51980,7 +51984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="395" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U395">
         <v>0</v>
       </c>
@@ -52057,7 +52061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="396" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U396">
         <v>0</v>
       </c>
@@ -52134,7 +52138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="397" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U397">
         <v>0</v>
       </c>
@@ -52211,7 +52215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="398" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U398">
         <v>0</v>
       </c>
@@ -52288,7 +52292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="399" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U399">
         <v>0</v>
       </c>
@@ -52365,7 +52369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="400" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U400">
         <v>0</v>
       </c>
@@ -52442,7 +52446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="401" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U401">
         <v>0</v>
       </c>
@@ -52519,7 +52523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="402" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U402">
         <v>0</v>
       </c>
@@ -52596,7 +52600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="403" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U403">
         <v>0</v>
       </c>
@@ -52673,7 +52677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="404" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U404">
         <v>0</v>
       </c>
@@ -52750,7 +52754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="405" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U405">
         <v>0</v>
       </c>
@@ -52827,7 +52831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="406" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U406">
         <v>0</v>
       </c>
@@ -52904,7 +52908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="407" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U407">
         <v>0</v>
       </c>
@@ -52981,7 +52985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="408" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U408">
         <v>0</v>
       </c>
@@ -53058,7 +53062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="409" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U409">
         <v>0</v>
       </c>
@@ -53135,7 +53139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="410" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U410">
         <v>0</v>
       </c>
@@ -53212,7 +53216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="411" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U411">
         <v>0</v>
       </c>
@@ -53289,7 +53293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="412" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U412">
         <v>0</v>
       </c>
@@ -53366,7 +53370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="413" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U413">
         <v>0</v>
       </c>
@@ -53443,7 +53447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="414" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U414">
         <v>0</v>
       </c>
@@ -53520,7 +53524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="415" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U415">
         <v>0</v>
       </c>
@@ -53597,7 +53601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="416" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U416">
         <v>0</v>
       </c>
@@ -53674,7 +53678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="417" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U417">
         <v>0</v>
       </c>
@@ -53751,7 +53755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="418" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U418">
         <v>0</v>
       </c>
@@ -53828,7 +53832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="419" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U419">
         <v>0</v>
       </c>
@@ -53905,7 +53909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="420" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U420">
         <v>0</v>
       </c>
@@ -53982,7 +53986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="421" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U421">
         <v>0</v>
       </c>
@@ -54059,7 +54063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="422" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U422">
         <v>0</v>
       </c>
@@ -54136,7 +54140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="423" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U423">
         <v>0</v>
       </c>
@@ -54213,7 +54217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="424" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U424">
         <v>0</v>
       </c>
@@ -54290,7 +54294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="425" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U425">
         <v>0</v>
       </c>
@@ -54367,7 +54371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="426" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U426">
         <v>0</v>
       </c>
@@ -54444,7 +54448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="427" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U427">
         <v>0</v>
       </c>
@@ -54521,7 +54525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="428" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U428">
         <v>0</v>
       </c>
@@ -54598,7 +54602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="429" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U429">
         <v>0</v>
       </c>
@@ -54675,7 +54679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="430" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U430">
         <v>0</v>
       </c>
@@ -54752,7 +54756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="431" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U431">
         <v>0</v>
       </c>
@@ -54829,7 +54833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="432" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U432">
         <v>0</v>
       </c>
@@ -54906,7 +54910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="433" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U433">
         <v>0</v>
       </c>
@@ -54983,7 +54987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="434" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U434">
         <v>0</v>
       </c>
@@ -55060,7 +55064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="435" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U435">
         <v>0</v>
       </c>
@@ -55137,7 +55141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="436" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U436">
         <v>0</v>
       </c>
@@ -55214,7 +55218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="437" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U437">
         <v>0</v>
       </c>
@@ -55291,7 +55295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="438" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U438">
         <v>0</v>
       </c>
@@ -55368,7 +55372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="439" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U439">
         <v>0</v>
       </c>
@@ -55445,7 +55449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="440" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U440">
         <v>0</v>
       </c>
@@ -55522,7 +55526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="441" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U441">
         <v>0</v>
       </c>
@@ -55599,7 +55603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="442" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U442">
         <v>0</v>
       </c>
@@ -55676,7 +55680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="443" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U443">
         <v>0</v>
       </c>
@@ -55753,7 +55757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="444" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U444">
         <v>0</v>
       </c>
@@ -55830,7 +55834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="445" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U445">
         <v>0</v>
       </c>
@@ -55907,7 +55911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="446" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U446">
         <v>0</v>
       </c>
@@ -55984,7 +55988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="447" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U447">
         <v>0</v>
       </c>
@@ -56061,7 +56065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="448" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U448">
         <v>0</v>
       </c>
@@ -56138,7 +56142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="449" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U449">
         <v>0</v>
       </c>
@@ -56215,7 +56219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="450" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U450">
         <v>0</v>
       </c>
@@ -56292,7 +56296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="451" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U451">
         <v>0</v>
       </c>
@@ -56369,7 +56373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="452" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U452">
         <v>0</v>
       </c>
@@ -56446,7 +56450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="453" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U453">
         <v>0</v>
       </c>
@@ -56523,7 +56527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="454" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U454">
         <v>0</v>
       </c>
@@ -56600,7 +56604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="455" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U455">
         <v>0</v>
       </c>
@@ -56677,7 +56681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="456" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U456">
         <v>0</v>
       </c>
@@ -56754,7 +56758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="457" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U457">
         <v>0</v>
       </c>
@@ -56831,7 +56835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="458" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U458">
         <v>0</v>
       </c>
@@ -56908,7 +56912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="459" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U459">
         <v>0</v>
       </c>
@@ -56985,7 +56989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="460" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U460">
         <v>0</v>
       </c>
@@ -57062,7 +57066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="461" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U461">
         <v>0</v>
       </c>
@@ -57139,7 +57143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="462" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U462">
         <v>0</v>
       </c>
@@ -57216,7 +57220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="463" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U463">
         <v>0</v>
       </c>
@@ -57293,7 +57297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="464" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U464">
         <v>0</v>
       </c>
@@ -57370,7 +57374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="465" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U465">
         <v>0</v>
       </c>
@@ -57447,7 +57451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="466" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U466">
         <v>0</v>
       </c>
@@ -57524,7 +57528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="467" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U467">
         <v>0</v>
       </c>
@@ -57601,7 +57605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="468" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U468">
         <v>0</v>
       </c>
@@ -57678,7 +57682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="469" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U469">
         <v>0</v>
       </c>
@@ -57755,7 +57759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="470" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U470">
         <v>0</v>
       </c>
@@ -57832,7 +57836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="471" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U471">
         <v>0</v>
       </c>
@@ -57909,7 +57913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="472" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U472">
         <v>0</v>
       </c>
@@ -57986,7 +57990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="473" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U473">
         <v>0</v>
       </c>
@@ -58063,7 +58067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="474" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U474">
         <v>0</v>
       </c>
@@ -58140,7 +58144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="475" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U475">
         <v>0</v>
       </c>
@@ -58217,7 +58221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="476" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U476">
         <v>0</v>
       </c>
@@ -58294,7 +58298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="477" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U477">
         <v>0</v>
       </c>
@@ -58371,7 +58375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="478" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U478">
         <v>0</v>
       </c>
@@ -58448,7 +58452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="479" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U479">
         <v>0</v>
       </c>
@@ -58525,7 +58529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="480" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U480">
         <v>0</v>
       </c>
@@ -58602,7 +58606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="481" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U481">
         <v>0</v>
       </c>
@@ -58679,7 +58683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="482" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U482">
         <v>0</v>
       </c>
@@ -58756,7 +58760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="483" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U483">
         <v>0</v>
       </c>
@@ -58833,7 +58837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="484" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U484">
         <v>0</v>
       </c>
@@ -58910,7 +58914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="485" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U485">
         <v>0</v>
       </c>
@@ -58987,7 +58991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="486" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U486">
         <v>0</v>
       </c>
@@ -59064,7 +59068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="487" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U487">
         <v>0</v>
       </c>
@@ -59141,7 +59145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="488" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U488">
         <v>0</v>
       </c>
@@ -59218,7 +59222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="489" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U489">
         <v>0</v>
       </c>
@@ -59295,7 +59299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="490" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U490">
         <v>0</v>
       </c>
@@ -59372,7 +59376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="491" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U491">
         <v>0</v>
       </c>
@@ -59449,7 +59453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="492" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U492">
         <v>0</v>
       </c>
@@ -59526,7 +59530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="493" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U493">
         <v>0</v>
       </c>
@@ -59603,7 +59607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="494" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U494">
         <v>0</v>
       </c>
@@ -59680,7 +59684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="495" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U495">
         <v>0</v>
       </c>
@@ -59757,7 +59761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="496" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U496">
         <v>0</v>
       </c>
@@ -59834,7 +59838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="497" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U497">
         <v>0</v>
       </c>
@@ -59911,7 +59915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="498" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U498">
         <v>0</v>
       </c>
@@ -59988,7 +59992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="499" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U499">
         <v>0</v>
       </c>
@@ -60065,7 +60069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="500" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U500">
         <v>0</v>
       </c>
@@ -60142,7 +60146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="501" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="U501">
         <v>0</v>
       </c>
@@ -60219,12 +60223,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="21:45" x14ac:dyDescent="0.35">
+    <row r="502" spans="21:45" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="503" spans="21:45" hidden="1" x14ac:dyDescent="0.35">
       <c r="AS503">
         <v>1000000</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="I1:I503" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Бекор қилинган"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>